--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_03_beg.xlsx
@@ -2564,7 +2564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="테레시아"]  동료들이 걱정할 테니까, 너도 돌아보는 게 좋지 않을까?
+    <t xml:space="preserve">[name="테레시아"]  동료들이 걱정할 테니까, 너도 돌아가보는 게 좋지 않을까?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_03_beg.xlsx
@@ -1604,7 +1604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  So what’s the deal with “the boss of this place?”
+    <t xml:space="preserve">[name="W"]  So what’s the deal with 'the boss of this place?'
 </t>
   </si>
   <si>
@@ -1900,7 +1900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  Maybe it’s just my whimsy. The Doctor and Kal'tsit may reject its “true name.”
+    <t xml:space="preserve">[name="Theresa"]  Maybe it’s just my whimsy. The Doctor and Kal'tsit may reject its 'true name.'
 </t>
   </si>
   <si>
@@ -1916,7 +1916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  “Rhodes Island.”
+    <t xml:space="preserve">[name="Theresa"]  'Rhodes Island.'
 </t>
   </si>
   <si>
@@ -1988,11 +1988,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  “W...”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Theresa"]  That’s not what I mean. “W” is a mercenary codename. I want to know your true name. The one that represents you..
+    <t xml:space="preserve">[name="W"]  'W...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Theresa"]  That’s not what I mean. 'W' is a mercenary codename. I want to know your true name. The one that represents you..
 </t>
   </si>
   <si>
@@ -2020,7 +2020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  If you wait for the dust to settle in Kazdel... until you’re no longer “W,” we could speak like this once again.
+    <t xml:space="preserve">[name="Theresa"]  If you wait for the dust to settle in Kazdel... until you’re no longer 'W,' we could speak like this once again.
 </t>
   </si>
   <si>
@@ -2128,7 +2128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  (That hood... is that the “Doctor” they were talking about?)
+    <t xml:space="preserve">[name="W"]  (That hood... is that the 'Doctor' they were talking about?)
 </t>
   </si>
   <si>
@@ -2152,7 +2152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  (“The Doctor,” huh?)
+    <t xml:space="preserve">[name="W"]  ('The Doctor,' huh?)
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_03_beg.xlsx
@@ -1476,15 +1476,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She wasn’t Sarkaz. She stood in the center of the battlefield, her expression unchanging.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ines was trembling, but I couldn’t tell you why.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The explosion must have damaged my hearing. I couldn’t hear what they were saying.
+    <t xml:space="preserve">She wasn't Sarkaz. She stood in the center of the battlefield, her expression unchanging.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ines was trembling, but I couldn't tell you why.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The explosion must have damaged my hearing. I couldn't hear what they were saying.
 </t>
   </si>
   <si>
@@ -1524,11 +1524,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She is heavily injured... If we don’t do something now...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...If... he... finds this place... We’re out of time...
+    <t xml:space="preserve">She is heavily injured... If we don't do something now...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...If... he... finds this place... We're out of time...
 </t>
   </si>
   <si>
@@ -1560,7 +1560,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  If you’re gonna screw around, can you leave me out of it?
+    <t xml:space="preserve">[name="Ines"]  If you're gonna screw around, can you leave me out of it?
 </t>
   </si>
   <si>
@@ -1576,11 +1576,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  The main convoy. This is the landship we were protecting. Now it’s hauling our wounded.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Looks like it’s still under construction. I can’t tell how it all fits together. Weird.
+    <t xml:space="preserve">[name="Ines"]  The main convoy. This is the landship we were protecting. Now it's hauling our wounded.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Looks like it's still under construction. I can't tell how it all fits together. Weird.
 </t>
   </si>
   <si>
@@ -1592,11 +1592,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  He’s with the client... Err, he’s... talking to the boss of this place. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Right. If you’re still hanging around here, Hoederer must be fine.
+    <t xml:space="preserve">[name="Ines"]  He's with the client... Err, he's... talking to the boss of this place. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Right. If you're still hanging around here, Hoederer must be fine.
 </t>
   </si>
   <si>
@@ -1604,19 +1604,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  So what’s the deal with 'the boss of this place?'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You look nervous. And I don’t need to blind myself with Originium Arts to figure that out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Don’t tell me you think I’m hanging out here because I care about you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Definitely not. So what’s the reason?
+    <t xml:space="preserve">[name="W"]  So what's the deal with 'the boss of this place?'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You look nervous. And I don't need to blind myself with Originium Arts to figure that out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Don't tell me you think I'm hanging out here because I care about you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Definitely not. So what's the reason?
 </t>
   </si>
   <si>
@@ -1644,7 +1644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  We don’t really look for fault on the battlefield. I know who I’m dealing with.
+    <t xml:space="preserve">[name="Hoederer"]  We don't really look for fault on the battlefield. I know who I'm dealing with.
 </t>
   </si>
   <si>
@@ -1652,15 +1652,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  But I can’t say I expected that commander... to be one of Her Majesty’s own.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  You’re... a lot stronger than I expected. I haven’t had a chance to thank you yet, Dr. Kal'tsit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Theresa’s the one you should be thanking.
+    <t xml:space="preserve">[name="Hoederer"]  But I can't say I expected that commander... to be one of Her Majesty's own.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  You're... a lot stronger than I expected. I haven't had a chance to thank you yet, Dr. Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Theresa's the one you should be thanking.
 </t>
   </si>
   <si>
@@ -1676,7 +1676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  We’re not in Kazdel anymore. Let’s not stand on ceremony. We’re here to sit down and talk, Hoederer.
+    <t xml:space="preserve">[name="???"]  We're not in Kazdel anymore. Let's not stand on ceremony. We're here to sit down and talk, Hoederer.
 </t>
   </si>
   <si>
@@ -1692,7 +1692,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  I hope you don’t mind. It’s very important that the Doctor be well aware of any new intelligence.
+    <t xml:space="preserve">[name="???"]  I hope you don't mind. It's very important that the Doctor be well aware of any new intelligence.
 </t>
   </si>
   <si>
@@ -1700,11 +1700,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  (It really is a landship... But it’s pretty big, huh...?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  (There are parts that look new, but some bits are so old they’re practically falling apart...)
+    <t xml:space="preserve">[name="W"]  (It really is a landship... But it's pretty big, huh...?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  (There are parts that look new, but some bits are so old they're practically falling apart...)
 </t>
   </si>
   <si>
@@ -1712,11 +1712,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Small Cautus"]  Oh! S-sorry. They’re still building this place...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Small Cautus"]  Dr. Kal'tsit said... not to go any deeper. It’s dangerous...
+    <t xml:space="preserve">[name="Small Cautus"]  Oh! S-sorry. They're still building this place...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Small Cautus"]  Dr. Kal'tsit said... not to go any deeper. It's dangerous...
 </t>
   </si>
   <si>
@@ -1724,7 +1724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Okay. I’ll go somewhere else.
+    <t xml:space="preserve">[name="W"]  Okay. I'll go somewhere else.
 </t>
   </si>
   <si>
@@ -1732,15 +1732,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  What a nice kid. With those ears, she’s definitely not Sarkaz.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Come to think of it, that one lady who sucks even more than Ines, that doctor, she isn’t a Sarkaz either...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  What’s going on here? I look around in the middle of a battle and nobody’s Sarkaz?
+    <t xml:space="preserve">[name="W"]  What a nice kid. With those ears, she's definitely not Sarkaz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Come to think of it, that one lady who sucks even more than Ines, that doctor, she isn't a Sarkaz either...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  What's going on here? I look around in the middle of a battle and nobody's Sarkaz?
 </t>
   </si>
   <si>
@@ -1752,7 +1752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Happy place, Closure. That’s only the seventh short circuit today...
+    <t xml:space="preserve">[name="???"]  Happy place, Closure. That's only the seventh short circuit today...
 </t>
   </si>
   <si>
@@ -1760,7 +1760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Closure"]  Kind of embarrassing for a genius engineer, huh? What if we invested in a new set of doors? That’d save some time!
+    <t xml:space="preserve">[name="Closure"]  Kind of embarrassing for a genius engineer, huh? What if we invested in a new set of doors? That'd save some time!
 </t>
   </si>
   <si>
@@ -1768,7 +1768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  And wouldn’t giving up be an even bigger embarrassment...?
+    <t xml:space="preserve">[name="???"]  And wouldn't giving up be an even bigger embarrassment...?
 </t>
   </si>
   <si>
@@ -1780,7 +1780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Closure"]  Give me three days! If I can’t fix it in three days, I’ll take the whole security control system apart and reinstall it!
+    <t xml:space="preserve">[name="Closure"]  Give me three days! If I can't fix it in three days, I'll take the whole security control system apart and reinstall it!
 </t>
   </si>
   <si>
@@ -1788,15 +1788,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Closure"]  I dunno who built these mysterious systems and then buried them out in Rim Billiton somewhere, then if we can’t figure it out...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Closure"]  We’ll just have to replace it with something we can! Easy peasy!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Well... I’ll leave you to it then.
+    <t xml:space="preserve">[name="Closure"]  I dunno who built these mysterious systems and then buried them out in Rim Billiton somewhere, then if we can't figure it out...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Closure"]  We'll just have to replace it with something we can! Easy peasy!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Well... I'll leave you to it then.
 </t>
   </si>
   <si>
@@ -1808,7 +1808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Rhodes Island... how long will it be until you’re up and running...?
+    <t xml:space="preserve">[name="???"]  Rhodes Island... how long will it be until you're up and running...?
 </t>
   </si>
   <si>
@@ -1820,11 +1820,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  You’re... I remember, you were with Hoederer...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  You’ve regained consciousness? Your wounds were quite serious.
+    <t xml:space="preserve">[name="???"]  You're... I remember, you were with Hoederer...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  You've regained consciousness? Your wounds were quite serious.
 </t>
   </si>
   <si>
@@ -1832,7 +1832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I’m W, the mercenary. I’m looking for Captain Hoederer and I kinda got lost...
+    <t xml:space="preserve">[name="W"]  I'm W, the mercenary. I'm looking for Captain Hoederer and I kinda got lost...
 </t>
   </si>
   <si>
@@ -1856,7 +1856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  Don’t make them worry. You ought to head back too.
+    <t xml:space="preserve">[name="Theresa"]  Don't make them worry. You ought to head back too.
 </t>
   </si>
   <si>
@@ -1864,7 +1864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  Oh? Well, we’re not in Kazdel anymore. No need for titles.
+    <t xml:space="preserve">[name="Theresa"]  Oh? Well, we're not in Kazdel anymore. No need for titles.
 </t>
   </si>
   <si>
@@ -1872,11 +1872,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  And that short girl there is an engineer, right? I mean, it’s just a door...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Theresa"]  It’s not just a door.
+    <t xml:space="preserve">[name="W"]  And that short girl there is an engineer, right? I mean, it's just a door...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Theresa"]  It's not just a door.
 </t>
   </si>
   <si>
@@ -1888,7 +1888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  So what’s Rhodes Island?
+    <t xml:space="preserve">[name="W"]  So what's Rhodes Island?
 </t>
   </si>
   <si>
@@ -1900,7 +1900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  Maybe it’s just my whimsy. The Doctor and Kal'tsit may reject its 'true name.'
+    <t xml:space="preserve">[name="Theresa"]  Maybe it's just my whimsy. The Doctor and Kal'tsit may reject its 'true name.'
 </t>
   </si>
   <si>
@@ -1908,7 +1908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  You saw. This vessel wasn’t built in Kazdel.
+    <t xml:space="preserve">[name="Theresa"]  You saw. This vessel wasn't built in Kazdel.
 </t>
   </si>
   <si>
@@ -1920,7 +1920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  I’m not actually sure what it means. Hm... Kal'tsit should know more.
+    <t xml:space="preserve">[name="Theresa"]  I'm not actually sure what it means. Hm... Kal'tsit should know more.
 </t>
   </si>
   <si>
@@ -1932,11 +1932,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  (...and she’s fixing a door herself?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Theresa"]  What’s wrong? You have an odd expression on your face.
+    <t xml:space="preserve">[name="W"]  (...and she's fixing a door herself?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Theresa"]  What's wrong? You have an odd expression on your face.
 </t>
   </si>
   <si>
@@ -1952,11 +1952,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  But that is perhaps an extravagant hope. I understand the pressure I’ve placed on everyone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  So I’m cool to laugh then?
+    <t xml:space="preserve">[name="Theresa"]  But that is perhaps an extravagant hope. I understand the pressure I've placed on everyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  So I'm cool to laugh then?
 </t>
   </si>
   <si>
@@ -1964,15 +1964,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Nah, the magic’s gone. Can’t do it...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Theresa"]  Why do I feel like that’s my fault?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Hehe... well, I wouldn’t dare.
+    <t xml:space="preserve">[name="W"]  Nah, the magic's gone. Can't do it...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Theresa"]  Why do I feel like that's my fault?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Hehe... well, I wouldn't dare.
 </t>
   </si>
   <si>
@@ -1992,11 +1992,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  That’s not what I mean. 'W' is a mercenary codename. I want to know your true name. The one that represents you..
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Theresa"]  You need not cloak yourself in a disguise tainted by war. This goes beyond names. Let’s just say I’m nosy.
+    <t xml:space="preserve">[name="Theresa"]  That's not what I mean. 'W' is a mercenary codename. I want to know your true name. The one that represents you..
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Theresa"]  You need not cloak yourself in a disguise tainted by war. This goes beyond names. Let's just say I'm nosy.
 </t>
   </si>
   <si>
@@ -2004,23 +2004,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  You don’t have a name?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  It’s pretty common for Sarkaz born in Kazdel.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  We don’t really care much for... names. People forget them all the time. What’s the point in making an effort to remember a name?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Theresa"]  I don’t want to forget them. I can’t forget them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Theresa"]  If you wait for the dust to settle in Kazdel... until you’re no longer 'W,' we could speak like this once again.
+    <t xml:space="preserve">[name="Theresa"]  You don't have a name?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  It's pretty common for Sarkaz born in Kazdel.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  We don't really care much for... names. People forget them all the time. What's the point in making an effort to remember a name?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Theresa"]  I don't want to forget them. I can't forget them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Theresa"]  If you wait for the dust to settle in Kazdel... until you're no longer 'W,' we could speak like this once again.
 </t>
   </si>
   <si>
@@ -2028,7 +2028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  Like Rhodes Island. A name makes things feel so much warmer, doesn’t it?
+    <t xml:space="preserve">[name="Theresa"]  Like Rhodes Island. A name makes things feel so much warmer, doesn't it?
 </t>
   </si>
   <si>
@@ -2044,7 +2044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Theresa"]  Right, I’m on my way.
+    <t xml:space="preserve">[name="Theresa"]  Right, I'm on my way.
 </t>
   </si>
   <si>
@@ -2052,7 +2052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Oh, yeah, I’m here.
+    <t xml:space="preserve">[name="W"]  Oh, yeah, I'm here.
 </t>
   </si>
   <si>
@@ -2064,11 +2064,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m not going to criticize Theresa’s decision, but...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Don’t expect too warm a welcome. I’ve seen your record. You’re dangerous.
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm not going to criticize Theresa's decision, but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Don't expect too warm a welcome. I've seen your record. You're dangerous.
 </t>
   </si>
   <si>
@@ -2076,7 +2076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You’re recovering fast, but not enough to have you wandering around as you please.
+    <t xml:space="preserve">[name="Kal'tsit"]  You're recovering fast, but not enough to have you wandering around as you please.
 </t>
   </si>
   <si>
@@ -2100,7 +2100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It wasn’t the look of a leader at the head of one of the armies in our cruel war...
+    <t xml:space="preserve">It wasn't the look of a leader at the head of one of the armies in our cruel war...
 </t>
   </si>
   <si>
@@ -2108,7 +2108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">You don’t have eyes like that when you’re naive... Such... sad eyes.
+    <t xml:space="preserve">You don't have eyes like that when you're naive... Such... sad eyes.
 </t>
   </si>
   <si>
@@ -2144,11 +2144,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  (Am I scared? Scared of what? That person gives off pretty normal vibes, but...? No, it’s too vague. I’ve never seen anyone that weird before...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  (Oh... that’s Babel’s battlefield commander. I remember now...)
+    <t xml:space="preserve">[name="W"]  (Am I scared? Scared of what? That person gives off pretty normal vibes, but...? No, it's too vague. I've never seen anyone that weird before...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  (Oh... that's Babel's battlefield commander. I remember now...)
 </t>
   </si>
   <si>
@@ -2156,7 +2156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’m starting to get why Ines wouldn’t go near Her Majesty.
+    <t xml:space="preserve">I'm starting to get why Ines wouldn't go near Her Majesty.
 </t>
   </si>
   <si>
@@ -2164,7 +2164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">But... I’m not sure why... Ugh, when it comes to Theresa, I never really knew why...
+    <t xml:space="preserve">But... I'm not sure why... Ugh, when it comes to Theresa, I never really knew why...
 </t>
   </si>
   <si>
